--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1208.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1208.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7123881739999007</v>
+        <v>1.168982625007629</v>
       </c>
       <c r="B1">
-        <v>1.32871577378352</v>
+        <v>2.287107706069946</v>
       </c>
       <c r="C1">
-        <v>4.733580213164189</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.163994148589328</v>
+        <v>2.321753978729248</v>
       </c>
       <c r="E1">
-        <v>1.564874068860689</v>
+        <v>1.229792952537537</v>
       </c>
     </row>
   </sheetData>
